--- a/EKtracking/EKTracking error message.xlsx
+++ b/EKtracking/EKTracking error message.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>Screen</t>
   </si>
   <si>
     <t>Condition</t>
-  </si>
-  <si>
-    <t>message</t>
   </si>
   <si>
     <t>Login</t>
@@ -154,6 +151,117 @@
   </si>
   <si>
     <t>Logout option should be added</t>
+  </si>
+  <si>
+    <t>My Team</t>
+  </si>
+  <si>
+    <t>admin user leaves a team which has members</t>
+  </si>
+  <si>
+    <t>Admin is not allowed to leave team with other members</t>
+  </si>
+  <si>
+    <t>Change team pic</t>
+  </si>
+  <si>
+    <t>Team picture updated.</t>
+  </si>
+  <si>
+    <t>leave team</t>
+  </si>
+  <si>
+    <t>You left *team name* team</t>
+  </si>
+  <si>
+    <t>Create team</t>
+  </si>
+  <si>
+    <t>Already used team name</t>
+  </si>
+  <si>
+    <t>This name has already been taken</t>
+  </si>
+  <si>
+    <t>Invalid team name- less than 4 char</t>
+  </si>
+  <si>
+    <t>Invalid team name- more than 15 char</t>
+  </si>
+  <si>
+    <t>Team name should be atleast 4 characters</t>
+  </si>
+  <si>
+    <t>Team name should not be more than 15 characters</t>
+  </si>
+  <si>
+    <t>Valid team name</t>
+  </si>
+  <si>
+    <t>Successfully Created team</t>
+  </si>
+  <si>
+    <t>Join team</t>
+  </si>
+  <si>
+    <t>Valid code</t>
+  </si>
+  <si>
+    <t>invalid code</t>
+  </si>
+  <si>
+    <t>already joined team code</t>
+  </si>
+  <si>
+    <t>The code is not valid</t>
+  </si>
+  <si>
+    <t>You have joined *team name* team</t>
+  </si>
+  <si>
+    <t>Code of own team</t>
+  </si>
+  <si>
+    <t>You cannot join your own team</t>
+  </si>
+  <si>
+    <t>You are already added to this team</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Current password blank</t>
+  </si>
+  <si>
+    <t>new password blank</t>
+  </si>
+  <si>
+    <t>incorrect current password</t>
+  </si>
+  <si>
+    <t>invalid new password</t>
+  </si>
+  <si>
+    <t>The current password field is required</t>
+  </si>
+  <si>
+    <t>The new password field is required</t>
+  </si>
+  <si>
+    <t>The Current password is incorrect</t>
+  </si>
+  <si>
+    <t>User Password must contain at least one upper case,number, special character between @#$%&amp;^.[\\]~!_\\-+=`(){}:;'\"&lt;&gt;,.?/ and character number must be between 6 to 32 .</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Your password has been changed successfully.</t>
+  </si>
+  <si>
+    <t>Messessage</t>
   </si>
 </sst>
 </file>
@@ -177,10 +285,62 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -189,13 +349,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,210 +667,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F26"/>
+  <dimension ref="A4:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" t="s">
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
+      <c r="D28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="9"/>
+      <c r="D35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+      <c r="D39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="9"/>
+      <c r="D40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+      <c r="D45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="D46" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C42:C46"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C22:C26"/>
+    <mergeCell ref="C28:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EKtracking/EKTracking error message.xlsx
+++ b/EKtracking/EKTracking error message.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Screen</t>
   </si>
@@ -262,6 +262,31 @@
   </si>
   <si>
     <t>Messessage</t>
+  </si>
+  <si>
+    <t>Success 
+Please check your mail to activate your account.</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>Valid email.</t>
+  </si>
+  <si>
+    <t>The email has already been taken.</t>
+  </si>
+  <si>
+    <t>Email already exists.</t>
+  </si>
+  <si>
+    <t>invalid Email</t>
+  </si>
+  <si>
+    <t>the email should be a valid email address.</t>
+  </si>
+  <si>
+    <t>The email field is required.</t>
   </si>
 </sst>
 </file>
@@ -349,12 +374,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,15 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -386,6 +399,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,447 +698,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I46"/>
+  <dimension ref="A4:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="8"/>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="12"/>
+      <c r="D44" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F46" s="1"/>
     </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="12"/>
+      <c r="D49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="12"/>
+      <c r="D50" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="13"/>
+      <c r="D51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="C42:C46"/>

--- a/EKtracking/EKTracking error message.xlsx
+++ b/EKtracking/EKTracking error message.xlsx
@@ -2,24 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Screen</t>
   </si>
@@ -67,9 +70,6 @@
 Code has been sent, Please check you email</t>
   </si>
   <si>
-    <t xml:space="preserve">Change password </t>
-  </si>
-  <si>
     <t>The password field is required</t>
   </si>
   <si>
@@ -165,9 +165,6 @@
     <t>Change team pic</t>
   </si>
   <si>
-    <t>Team picture updated.</t>
-  </si>
-  <si>
     <t>leave team</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Valid team name</t>
   </si>
   <si>
-    <t>Successfully Created team</t>
-  </si>
-  <si>
     <t>Join team</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>The code is not valid</t>
   </si>
   <si>
-    <t>You have joined *team name* team</t>
-  </si>
-  <si>
     <t>Code of own team</t>
   </si>
   <si>
@@ -262,28 +253,51 @@
   </si>
   <si>
     <t>Messessage</t>
+  </si>
+  <si>
+    <t>Team picture uploaded successfully</t>
+  </si>
+  <si>
+    <t>Team created successfully</t>
+  </si>
+  <si>
+    <t>Change password 
+(Forgot Password)</t>
+  </si>
+  <si>
+    <t>Confirmation should be there before leaving team</t>
+  </si>
+  <si>
+    <t>Confirmation message.</t>
+  </si>
+  <si>
+    <t>Are you sure you want to leave this team?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome
+You have successfully joined *team name* team </t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>Valid email.</t>
   </si>
   <si>
     <t>Success 
 Please check your mail to activate your account.</t>
   </si>
   <si>
-    <t>Sign up</t>
-  </si>
-  <si>
-    <t>Valid email.</t>
+    <t>invalid Email</t>
+  </si>
+  <si>
+    <t>the email should be a valid email address.</t>
+  </si>
+  <si>
+    <t>Email already exists.</t>
   </si>
   <si>
     <t>The email has already been taken.</t>
-  </si>
-  <si>
-    <t>Email already exists.</t>
-  </si>
-  <si>
-    <t>invalid Email</t>
-  </si>
-  <si>
-    <t>the email should be a valid email address.</t>
   </si>
   <si>
     <t>The email field is required.</t>
@@ -293,10 +307,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,61 +350,67 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -400,6 +436,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,14 +451,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -513,7 +561,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -698,18 +746,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I51"/>
+  <dimension ref="A4:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="30.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -733,19 +781,19 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
@@ -755,17 +803,17 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
@@ -776,15 +824,15 @@
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -798,7 +846,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -810,19 +858,19 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+      <c r="D14" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -830,7 +878,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
@@ -846,44 +894,44 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>15</v>
+      <c r="C17" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+      <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="16"/>
+      <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="16"/>
+      <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -894,54 +942,54 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="15"/>
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-      <c r="D23" s="6" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+      <c r="D24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+      <c r="D25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="15"/>
+      <c r="D26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -952,251 +1000,267 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="13"/>
+      <c r="D29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="12"/>
-      <c r="D29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="13"/>
       <c r="D30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="14"/>
+      <c r="D31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="11" t="s">
+      <c r="E33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="13"/>
+      <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="12"/>
-      <c r="D33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="12"/>
-      <c r="D34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="13"/>
       <c r="D35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+      <c r="D36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="13"/>
+      <c r="D39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
-      <c r="D38" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="12"/>
-      <c r="D39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="13"/>
       <c r="D40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+      <c r="D41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="13"/>
+      <c r="D44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="12"/>
-      <c r="D43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="12"/>
-      <c r="D44" s="6" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="13"/>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C45" s="12"/>
-      <c r="D45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C46" s="13"/>
       <c r="D46" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>79</v>
-      </c>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="12"/>
-      <c r="D49" s="15" t="s">
+    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="15"/>
+      <c r="D50" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="12"/>
-      <c r="D50" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="15"/>
+      <c r="D52" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C43:C47"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>